--- a/output/fit_clients/fit_round_75.xlsx
+++ b/output/fit_clients/fit_round_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8859678081.397396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004533418425582349</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.964478539874667</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9586537636067886</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.964478539874667</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5898338960.046873</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003933707889743293</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.342129269514561</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.895033494446851</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.342129269514561</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4746498930.088935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003839434658238521</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.107394429333677</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.889221971577583</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.302057217262613</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.889221971577583</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4753266200.660529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005119237787386184</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7159506230036321</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.488544967025883</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.107783029571972</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.488544967025883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5962813374.224579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002159268841687764</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.398074230806022</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8840249606280007</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.398074230806022</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8180619576.311256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009930258964738039</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.396632498849764</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9093521172709798</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.396632498849764</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6415243625.972239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002613889050699428</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.265873140303626</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9677303964053028</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.265873140303626</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6941596254.91183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004674377383859507</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.800099743159593</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9017476895779493</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.800099743159593</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4474064268.815689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004368216317410785</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.534694194226459</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.946184206212341</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.534694194226459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3289330450.520329</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001032062857636039</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.372777242163514</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7877956858398735</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.372777242163514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7861410106.875054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001604005545439029</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.05471630079627563</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.916482819325442</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.1895300319009562</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.916482819325442</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6167279554.755604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004672578219941539</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.461070436320641</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.035161728628007</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.461070436320641</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9098679833.042253</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002322516964327388</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.922919649127612</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9075065006475815</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.922919649127612</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5246595703.419805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004244772000197132</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>11</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.314879659255233</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.003880218058669</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.314879659255233</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5453774361.158619</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004720937152363454</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.001055550603154</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9256939767032389</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.001055550603154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4518451781.296218</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002554695131433069</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.851282770595373</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.947937735686503</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.851282770595373</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5446647616.374004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.000941394089551476</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.884239240155414</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9357691029361173</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.884239240155414</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3773842022.502037</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002349794742682373</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.734259706977578</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9270470863994172</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.734259706977578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4152449499.961347</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001232211349393751</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.991468062278579</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.836282584823707</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.991468062278579</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6325567894.878666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004362996450650149</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.807689741121538</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8757267860606412</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.807689741121538</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4796549899.959054</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005378182739479714</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.471585703111819</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7899109786476588</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.471585703111819</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6574862195.529021</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001793597986150328</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>21</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8002371019722165</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.196466090295889</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.220936510347104</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.196466090295889</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7284914514.290267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003422878315806676</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2975402510943825</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.039013741982194</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.7715603658229353</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.039013741982194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6732041432.850301</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003711676467681699</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.254745733431066</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9553793140606415</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.254745733431066</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5354997413.757282</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009332785290821869</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>18</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7127607994831991</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.259289985566713</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.085859927253147</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.259289985566713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7164409831.714728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003885584385410196</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.3460106911000203</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.665912528428668</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.7836801436500587</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.665912528428668</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6328612317.335128</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005215566701823657</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.958856995684032</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9256939767032389</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.958856995684032</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6345952170.303907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001307440007869398</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.03727959496297</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9930291216421746</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.03727959496297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7727599583.362192</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003181284720496196</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.512006202512439</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8980479861600981</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.512006202512439</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7795531471.91461</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002451368345535923</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.441082355203647</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9503644859497564</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.441082355203647</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4126974480.805246</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001043361608687863</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>15</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2200907469253154</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.928946482690604</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.5602539281179786</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.928946482690604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7424655915.95834</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002555990413401586</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.148360460990113</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8608398073469989</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.148360460990113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7052502883.199059</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005528838793376044</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4987022531531806</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.788959917228297</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7939963675294218</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.788959917228297</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5802774096.57438</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002679460279919882</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.722072670289631</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9348813372206537</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.722072670289631</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5646293392.62731</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003823697553256614</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.724757143052035</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.020151735585774</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.724757143052035</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4676509755.184047</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003722819273468519</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>17</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2114140393129277</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.6660657846852</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.5893355538713533</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.6660657846852</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4053991144.119218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003922313964853246</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>15</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.560039589122596</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9107207706947262</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.560039589122596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6170528504.077371</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002181671928210233</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.018713910177026</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8671144435753386</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.018713910177026</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6944296711.789865</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004011082823450462</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.754100879354494</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9797261357379743</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.754100879354494</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5401570533.227481</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001291589744397611</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.075266027724164</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9417607534461759</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.075266027724164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5126644761.848096</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003602630379740671</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.2994331791800775</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.461574710893848</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7376092581228474</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.461574710893848</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5521403761.080099</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003890834583612079</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.76150722808656</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.440850786752494</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.76150722808656</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7373367221.446895</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00187565366640854</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.547805261107342</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9353338319841108</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.547805261107342</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5101411065.152349</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001396226749491506</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.010962349545797</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9623403140135637</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.010962349545797</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7518068562.881311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003584233000838423</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5463736154324019</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.588914315288602</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9191394263800153</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.588914315288602</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7291552649.961386</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.0030833808753677</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.559017368505952</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8992074377238533</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.559017368505952</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>4999321857.935755</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002893685532144434</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.242432297376593</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.959731710522134</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.242432297376593</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4555890888.53639</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.00389079316827812</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>19</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.499907399597552</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8630304338006364</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.499907399597552</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5413423026.602195</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00284000398706825</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2245954295175633</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.622706001377368</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.6792907068667766</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.622706001377368</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5620995756.344972</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004981514944375727</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>18</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.495419293482924</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9486070548938371</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.495419293482924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7807414830.922896</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001980912146353218</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.756844719565343</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8671144435753386</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.756844719565343</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6767500792.218294</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003451454256746355</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.743201802934792</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9292921831291966</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.743201802934792</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5478075495.750276</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003943822033442539</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7396138636293752</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.412736197400482</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.139928278671322</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.412736197400482</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7302521800.568882</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003550316043510351</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.5548778551884</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9114086915995984</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.5548778551884</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4553747014.73628</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002132526140170952</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.677569450887578</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9095759954853175</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.677569450887578</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5484659187.463664</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003138668226801399</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.599351667883136</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8292839324259724</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.599351667883136</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6725813526.913561</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002844969244918715</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.344606925781716</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8307940794666729</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.344606925781716</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6769387021.379547</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002807382105200089</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.786543738977186</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9093433676438206</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.786543738977186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4474528068.320012</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003760030999161202</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677435</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.519934898448304</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8405155061538685</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.519934898448304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7354537590.337162</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005749547501448876</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>20</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.984338437892051</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9366730161326696</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.984338437892051</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5307488179.120438</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003527346729932295</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>15</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.223135024142218</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8769157510478357</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.223135024142218</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7280432269.383372</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004870561972285616</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>20</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.274688384573871</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8957334632189629</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.274688384573871</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3374407676.605197</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005206113826652896</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7709731710485616</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.783674978415857</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.212355219456125</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.783674978415857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6812105549.647305</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005082625626502014</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.943305852093388</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.4760952285695233</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.943305852093388</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6673500652.709308</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003608555636276311</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.860514668993005</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9218608880988461</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.860514668993005</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5017623272.829247</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00487959913270446</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.020131981694859</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8889469944437526</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.020131981694859</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7013875204.29098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002081327088957304</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.359472421466637</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7321306831514617</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.359472421466637</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5853717248.81564</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001275801392363819</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.267281998103257</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9917660382027796</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.267281998103257</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6664270722.307612</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.00322474482197928</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.01110030361432</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9118553832045281</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.01110030361432</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4680275378.869419</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002987507475341444</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>13</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.777322158546041</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8022021356547836</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.777322158546041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6264705511.910458</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002280446786101743</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.489624010342089</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.042183582051623</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.489624010342089</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8199850397.580994</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001078364947794217</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.035658335650795</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9711728699089239</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.035658335650795</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4255321139.509834</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004900395957751446</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.664305371784129</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8821263552041416</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.664305371784129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7389005711.677995</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003089879124449342</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>15</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.724969563407889</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8769157510478357</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.724969563407889</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7148699499.733382</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002357513493986551</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.581942176121761</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.92570257178646</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.581942176121761</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6195540290.270126</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005150424698303225</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.093889063885394</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9902957610015067</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.093889063885394</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7688615676.177197</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003385429042250265</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.678522086578418</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9265991316305311</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.678522086578418</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6570613935.465895</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.00191116627605573</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>11</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.977433764448462</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9647143409201485</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.977433764448462</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6867278368.195962</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002589898878638128</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.05941753336067886</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.724872148650308</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.2981607548949772</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.724872148650308</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5910431940.316541</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00502757968930044</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.475994710804919</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9936520540262147</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.475994710804919</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6324012135.874935</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.003956372141294251</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>19</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.446898779030145</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8785848437220408</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.446898779030145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10745134911.56016</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003484494305092982</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>21</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.191278919796346</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8224829790127274</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.191278919796346</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7381506784.091384</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005595866023188876</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.46597025538263</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.957787209744979</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.46597025538263</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3828335385.100084</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002437141336478236</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>21</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.201763677807926</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.890602473059829</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.201763677807926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6255115016.391795</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002346165846310909</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>16</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.827418936892197</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9913553539355362</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.827418936892197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3316664687.112212</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001296404088922354</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.15384922171583</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9551828312799113</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.15384922171583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6008831350.283769</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005800069692445572</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>15</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.575254145777909</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8466908935045558</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.575254145777909</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5176849052.259911</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004061975320900535</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.037578949776185</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9653637866242406</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.037578949776185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7002417598.301003</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002582856718779477</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>13</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.753663159498105</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9562563704199722</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.753663159498105</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6375328773.407835</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004851245425936252</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.79932773775756</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8130370600445032</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.79932773775756</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5274253905.829146</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003120750139929234</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.005658223313435</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.057065828113789</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.005658223313435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5774110228.042576</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001528642876041999</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>16</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.581070580820498</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9261509601977747</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.581070580820498</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6705312470.485789</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001213355306035304</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.876966330425091</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.008233081158113</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.876966330425091</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7445848196.571606</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.00234728644999831</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.988284889858891</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9373249139357972</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.988284889858891</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9786657632.582153</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003035750849029141</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.264230869529111</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9040732175534058</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.264230869529111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7471426227.908159</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004851942818120563</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.869277300638467</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8973498228103195</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.869277300638467</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5981979541.05084</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004915827379333599</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>14</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7322977620804878</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.544844233013971</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.143578827076652</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.544844233013971</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3912409027.535469</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.00595507710824394</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.8728764162079317</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.476279327507173</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.318640126322751</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.476279327507173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5293468358.046646</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003401464476876304</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.756024680824769</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.835289089090138</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.756024680824769</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7182461333.130778</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001603462922348433</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4605199103315955</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.848479804609469</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.894096384036947</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.848479804609469</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_75.xlsx
+++ b/output/fit_clients/fit_round_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8859678081.397396</v>
+        <v>1912945155.682802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004533418425582349</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18</v>
+        <v>0.1057933472206958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0369316469512706</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>956472561.7211249</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5898338960.046873</v>
+        <v>1653996929.751786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003933707889743293</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0.1708865933430852</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03263953419310505</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>826998451.2603241</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4746498930.088935</v>
+        <v>4514935527.428541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003839434658238521</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
+        <v>0.1574629406385083</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0382493006069804</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2257467814.278742</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>535</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2858532787.266925</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1103541006187331</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03477198537400422</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
-        <v>494</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4753266200.660529</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.005119237787386184</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1429266472.716151</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5962813374.224579</v>
+        <v>2415138026.454789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002159268841687764</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16</v>
+        <v>0.0926410838118111</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04713245100365712</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1207568997.807175</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8180619576.311256</v>
+        <v>2490518175.512315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009930258964738039</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
+        <v>0.1020162106799117</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03155792190080261</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1245259101.626139</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6415243625.972239</v>
+        <v>2536368330.663971</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002613889050699428</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>20</v>
+        <v>0.145041902949934</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02675878656560834</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1268184175.360296</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6941596254.91183</v>
+        <v>1695817761.040113</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004674377383859507</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>24</v>
+        <v>0.1834278157087484</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03383729933317856</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>847908949.2587872</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4474064268.815689</v>
+        <v>5318339856.922675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004368216317410785</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2119024711996892</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0412057467579466</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2659170052.338563</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3289330450.520329</v>
+        <v>3875562711.100605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001032062857636039</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1533875860803489</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04250352333664805</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1937781359.510482</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7861410106.875054</v>
+        <v>2366096841.761705</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001604005545439029</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21</v>
+        <v>0.120313219940733</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05306126890259951</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1183048380.772621</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6167279554.755604</v>
+        <v>4137380621.635465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004672578219941539</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15</v>
+        <v>0.06447508860938955</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02088884095617057</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2068690358.685107</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9098679833.042253</v>
+        <v>3253476413.126674</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002322516964327388</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17</v>
+        <v>0.1433850795261085</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04218148738570926</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1626738222.530229</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5246595703.419805</v>
+        <v>1465701749.042612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004244772000197132</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
+        <v>0.1085549613060527</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03539621167077505</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>732850952.1543194</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5453774361.158619</v>
+        <v>2824367077.203995</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004720937152363454</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>23</v>
+        <v>0.1008741125341681</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04371363085951282</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>13</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1412183540.347553</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4518451781.296218</v>
+        <v>4401001940.79097</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002554695131433069</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16</v>
+        <v>0.1641248407491839</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04606709981964258</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2200500985.035137</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5446647616.374004</v>
+        <v>3995122736.774466</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000941394089551476</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>21</v>
+        <v>0.1721990781832767</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02466283507496769</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1997561326.502336</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3773842022.502037</v>
+        <v>1008342345.054047</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002349794742682373</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1649156337800658</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0180526300285624</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>504171203.7506669</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4152449499.961347</v>
+        <v>2379296171.205661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001232211349393751</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
+        <v>0.1013707823303702</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0242153527896177</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1189648071.443457</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6325567894.878666</v>
+        <v>2076253271.075271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004362996450650149</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14</v>
+        <v>0.0889736251819452</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03632695780987848</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1038126664.095976</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4014459205.230309</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1380453641402674</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03802261309466514</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4796549899.959054</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.005378182739479714</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2007229603.299133</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6574862195.529021</v>
+        <v>1078705571.152081</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001793597986150328</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>14</v>
+        <v>0.1486512906909798</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04848247089794802</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>539352842.4131469</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7284914514.290267</v>
+        <v>2748279252.525245</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003422878315806676</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20</v>
+        <v>0.09580065291642974</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02584003780086742</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1374139678.344595</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6732041432.850301</v>
+        <v>1471144661.754789</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003711676467681699</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>0.114905519652487</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02966904978265559</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>735572286.3787947</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5354997413.757282</v>
+        <v>1397552727.408441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009332785290821869</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1032825732992982</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03298331890247604</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>698776433.0062653</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7164409831.714728</v>
+        <v>3878811286.100756</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003885584385410196</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1232624680139209</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02555036946440864</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>21</v>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1939405659.145892</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6328612317.335128</v>
+        <v>2846675006.644925</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005215566701823657</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>19</v>
+        <v>0.1018438107164523</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04781789715917348</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1423337501.125015</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6345952170.303907</v>
+        <v>3977442627.158082</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001307440007869398</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>20</v>
+        <v>0.1293866620049358</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03177820573039174</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>35</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1988721331.978396</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7727599583.362192</v>
+        <v>1499324047.759349</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003181284720496196</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25</v>
+        <v>0.1081143864548396</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02817730610810696</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>749662004.1964165</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7795531471.91461</v>
+        <v>1065943382.433942</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002451368345535923</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>15</v>
+        <v>0.08427181696344173</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0483885479711121</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>532971674.1337158</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4126974480.805246</v>
+        <v>1496659789.307475</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001043361608687863</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07674329955863922</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02393024862396558</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>748329962.2315688</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7424655915.95834</v>
+        <v>2678987350.403735</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002555990413401586</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16</v>
+        <v>0.1975462821099696</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05820247629144334</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1339493698.071614</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7052502883.199059</v>
+        <v>1540694964.259737</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005528838793376044</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>23</v>
+        <v>0.1096762114977935</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02539136549422745</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>770347431.1980157</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5802774096.57438</v>
+        <v>993889494.0897827</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002679460279919882</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>19</v>
+        <v>0.1060545825441621</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03964593148293672</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>496944766.8738779</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5646293392.62731</v>
+        <v>2608645305.312589</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003823697553256614</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21</v>
+        <v>0.1465101400666391</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02593120068844803</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>19</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1304322665.819146</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4676509755.184047</v>
+        <v>1799507095.169886</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003722819273468519</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08982362963940933</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03331740218211304</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>19</v>
+      </c>
+      <c r="J37" t="n">
+        <v>899753547.2129657</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4053991144.119218</v>
+        <v>1466781222.509071</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003922313964853246</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1086662577051497</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03933028403125029</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>733390665.1063902</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6170528504.077371</v>
+        <v>1581869277.621399</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002181671928210233</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11</v>
+        <v>0.1581044620515151</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02873738395062288</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>790934696.754002</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6944296711.789865</v>
+        <v>1644147322.542629</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004011082823450462</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>21</v>
+        <v>0.1286684749899912</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05167438281068475</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>822073591.2974589</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5401570533.227481</v>
+        <v>2124477217.474391</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001291589744397611</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>21</v>
+        <v>0.1373231591585909</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04350409451817375</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1062238670.720866</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5126644761.848096</v>
+        <v>3478325187.624644</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003602630379740671</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>19</v>
+        <v>0.09733556730926841</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04443235354564241</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1739162587.102618</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5521403761.080099</v>
+        <v>2219286941.733288</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003890834583612079</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>19</v>
+        <v>0.1755446684744866</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02379211297245896</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>26</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1109643547.669878</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7373367221.446895</v>
+        <v>2199706961.810338</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00187565366640854</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>20</v>
+        <v>0.07078321013776957</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03090773161483079</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1099853626.997483</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5101411065.152349</v>
+        <v>2152992195.243302</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001396226749491506</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1546877976017398</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05044814691748522</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1076496103.813172</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7518068562.881311</v>
+        <v>5518432356.106452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003584233000838423</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
+        <v>0.1366789528487107</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04577502071250497</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2759216234.423661</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7291552649.961386</v>
+        <v>4903140152.610644</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0030833808753677</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>11</v>
+        <v>0.2002098324137291</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05364803770939576</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2451570126.531546</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4999321857.935755</v>
+        <v>3484419709.727086</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002893685532144434</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>13</v>
+        <v>0.09556564301822479</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03787630356106226</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1742209919.105075</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4555890888.53639</v>
+        <v>1361763745.332809</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00389079316827812</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1859696275745713</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03412070264541472</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>680881926.1031125</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5413423026.602195</v>
+        <v>3952324378.369836</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00284000398706825</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
+        <v>0.1686377090847767</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05340703963037492</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1976162181.147832</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5620995756.344972</v>
+        <v>1003267206.847178</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004981514944375727</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1200742363238252</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04554044494437916</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>501633686.7823811</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7807414830.922896</v>
+        <v>5153193585.773816</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001980912146353218</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>18</v>
+        <v>0.1184017146514705</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05626888843380391</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>31</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2576596781.400095</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6767500792.218294</v>
+        <v>3163893424.103787</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003451454256746355</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>14</v>
+        <v>0.1916162916532657</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03143452123663914</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1581946733.077536</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5478075495.750276</v>
+        <v>3286225784.267475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003943822033442539</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>19</v>
+        <v>0.1510738488278363</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04296895830527744</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1643112900.078247</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7302521800.568882</v>
+        <v>3696110918.397708</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003550316043510351</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>23</v>
+        <v>0.1595525695514275</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03066453634802916</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>19</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1848055420.601332</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4553747014.73628</v>
+        <v>1600198826.385797</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002132526140170952</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.1114962066987979</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04802935802454424</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>800099440.5150504</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5484659187.463664</v>
+        <v>2968860661.466818</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003138668226801399</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
+        <v>0.1241988395450062</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02260693225892198</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1484430332.438131</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6725813526.913561</v>
+        <v>1250793489.11481</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002844969244918715</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1611873737241958</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03931607257087857</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>625396798.3303642</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6769387021.379547</v>
+        <v>3985409426.645589</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002807382105200089</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1256886681584473</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04690844164678059</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1992704689.86184</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4474528068.320012</v>
+        <v>3399313009.896174</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003760030999161202</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1255836815500287</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02101306890404238</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1699656617.079684</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7354537590.337162</v>
+        <v>2071363663.854762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005749547501448876</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16</v>
+        <v>0.1783502839803262</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02541351520252149</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>26</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1035681899.879109</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5307488179.120438</v>
+        <v>2106232839.278017</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003527346729932295</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>13</v>
+        <v>0.1734372949423837</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04128336245637088</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1053116493.57206</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7280432269.383372</v>
+        <v>3598122241.463758</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004870561972285616</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>17</v>
+        <v>0.09868284772026388</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03910100990877884</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>21</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1799061200.959826</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3374407676.605197</v>
+        <v>3789914826.409882</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005206113826652896</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1329164557838646</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02192762832181901</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1894957434.196151</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6812105549.647305</v>
+        <v>4742131648.556657</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005082625626502014</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>18</v>
+        <v>0.1158437455250492</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01999015096022868</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>27</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2371065798.489035</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6673500652.709308</v>
+        <v>5427840277.152947</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003608555636276311</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>16</v>
+        <v>0.1264098228859755</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0456885528180554</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2713920188.569228</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5017623272.829247</v>
+        <v>3288118042.534007</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00487959913270446</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>13</v>
+        <v>0.07106796903870637</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03784410992721422</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1644059015.023537</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7013875204.29098</v>
+        <v>3766496224.070659</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002081327088957304</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>15</v>
+        <v>0.1140550951769729</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04530491177710953</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1883248093.588934</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5853717248.81564</v>
+        <v>2075398622.416195</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001275801392363819</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>18</v>
+        <v>0.1763461070115507</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05459272146052462</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1037699325.842636</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6664270722.307612</v>
+        <v>2348231778.584447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00322474482197928</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>17</v>
+        <v>0.0778433383484156</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04541221464821002</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1174115823.798401</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4680275378.869419</v>
+        <v>4059651668.552478</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002987507475341444</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1493560573231685</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02586606529735222</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2029825869.711465</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6264705511.910458</v>
+        <v>1540208269.228969</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002280446786101743</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>15</v>
+        <v>0.09319864574665901</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03603637677844719</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>770104155.0243379</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2869580390.697398</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.07431940099519831</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0507784109931691</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8199850397.580994</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.001078364947794217</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>18</v>
+      <c r="I73" t="n">
+        <v>28</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1434790203.177123</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4255321139.509834</v>
+        <v>3901310184.831686</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004900395957751446</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17</v>
+        <v>0.1431579617905508</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02935545226881404</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1950655079.808484</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7389005711.677995</v>
+        <v>2087379289.179437</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003089879124449342</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>15</v>
+        <v>0.1513356192957105</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03111879187912011</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1043689600.532223</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7148699499.733382</v>
+        <v>3470036577.925612</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002357513493986551</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>15</v>
+        <v>0.1051941386647263</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02675441949222329</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>16</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1735018251.349332</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6195540290.270126</v>
+        <v>1608587638.969335</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005150424698303225</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1284063075469049</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01975155560187232</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>804293823.0923587</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7688615676.177197</v>
+        <v>3709675392.475275</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003385429042250265</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>15</v>
+        <v>0.116750416932339</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04715662248474046</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1854837682.655147</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6570613935.465895</v>
+        <v>1754390773.143629</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00191116627605573</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16</v>
+        <v>0.1363930854878574</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02651986485600836</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>877195465.1762352</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6867278368.195962</v>
+        <v>4502331162.610229</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002589898878638128</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.1111671297343929</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03428970130271038</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2251165605.666692</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5910431940.316541</v>
+        <v>3597977039.804789</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00502757968930044</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.08852510496298156</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02306988797720712</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1798988468.063686</v>
       </c>
     </row>
     <row r="82">
@@ -2723,19 +3213,25 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6324012135.874935</v>
+        <v>5431180291.162791</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003956372141294251</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.2034004694164563</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01907800052534075</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2715590105.392877</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10745134911.56016</v>
+        <v>2052668847.18821</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003484494305092982</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>21</v>
+        <v>0.1047491355207622</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03034652425560391</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1026334415.33245</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7381506784.091384</v>
+        <v>1614174860.547119</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005595866023188876</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>19</v>
+        <v>0.1149128262249012</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03194033215947185</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>807087491.6885781</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3828335385.100084</v>
+        <v>2837570461.611447</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002437141336478236</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.1839950399351543</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05144671744317157</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1418785272.9419</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6255115016.391795</v>
+        <v>2531980326.452024</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002346165846310909</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>20</v>
+        <v>0.1172984420532273</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02733910424936257</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1265990264.731962</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3316664687.112212</v>
+        <v>1265588860.904431</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001296404088922354</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1610552478483828</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02920293060054736</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>632794502.7625375</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6008831350.283769</v>
+        <v>2647818092.562021</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005800069692445572</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>18</v>
+        <v>0.1172059818563576</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03385692924818789</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1323909041.841506</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5176849052.259911</v>
+        <v>2675217347.335035</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004061975320900535</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16</v>
+        <v>0.1185140964794496</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02748887730079028</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1337608735.489809</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7002417598.301003</v>
+        <v>1715200834.384458</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002582856718779477</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>13</v>
+        <v>0.1099000359948505</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05113750884073708</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>857600435.1954798</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6375328773.407835</v>
+        <v>1893570564.935344</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004851245425936252</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>23</v>
+        <v>0.1296560096411423</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04858146317219421</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>946785268.8290584</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5274253905.829146</v>
+        <v>2450249865.749639</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003120750139929234</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07699803351828215</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04594464402093736</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1225124912.971678</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5774110228.042576</v>
+        <v>4604254550.602052</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001528642876041999</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>25</v>
+        <v>0.09714947212780999</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04874945430667639</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2302127236.774847</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6705312470.485789</v>
+        <v>1560327973.785264</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001213355306035304</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>23</v>
+        <v>0.1348749088292529</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04038066429462521</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>780163927.8814908</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7445848196.571606</v>
+        <v>2146179860.852509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00234728644999831</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>19</v>
+        <v>0.1347476592547403</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04647392821571043</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>17</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1073089992.141222</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9786657632.582153</v>
+        <v>1619752116.59149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003035750849029141</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>20</v>
+        <v>0.09300184327419161</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0356284362321438</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>809876085.7740985</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7471426227.908159</v>
+        <v>3319403311.318459</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004851942818120563</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>19</v>
+        <v>0.1413640524700462</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02694176316971976</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1659701657.205683</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5981979541.05084</v>
+        <v>3139743064.593474</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004915827379333599</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>28</v>
+        <v>0.09016604328936954</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02059163280334792</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>20</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1569871526.371041</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3912409027.535469</v>
+        <v>2926663859.147966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00595507710824394</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1068532027216369</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0281722110466504</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>23</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1463331910.156264</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5293468358.046646</v>
+        <v>3034875706.118645</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003401464476876304</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.134907644989325</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02675983513133622</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1517437846.623672</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
+        <v>2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>584</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2624527871.951492</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1920144184873755</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03578766007121826</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="D101" t="n">
-        <v>573</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7182461333.130778</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.001603462922348433</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>24</v>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1312263975.344206</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_75.xlsx
+++ b/output/fit_clients/fit_round_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1912945155.682802</v>
+        <v>1990422663.581638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1057933472206958</v>
+        <v>0.07532671380807969</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0369316469512706</v>
+        <v>0.03449274796667566</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>956472561.7211249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1653996929.751786</v>
+        <v>1639420968.846245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1708865933430852</v>
+        <v>0.1437639947655232</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03263953419310505</v>
+        <v>0.04568542836066124</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>826998451.2603241</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4514935527.428541</v>
+        <v>3655118866.499289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1574629406385083</v>
+        <v>0.1449526327870936</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0382493006069804</v>
+        <v>0.03116153524114404</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2257467814.278742</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2858532787.266925</v>
+        <v>3729279063.141557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1103541006187331</v>
+        <v>0.06869746785938929</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03477198537400422</v>
+        <v>0.04924681621300239</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>29</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1429266472.716151</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2415138026.454789</v>
+        <v>1826878475.658149</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0926410838118111</v>
+        <v>0.146883907588332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04713245100365712</v>
+        <v>0.03615945807184361</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1207568997.807175</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2490518175.512315</v>
+        <v>2392415362.812657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1020162106799117</v>
+        <v>0.08700977916672216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03155792190080261</v>
+        <v>0.03317397669967235</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1245259101.626139</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2536368330.663971</v>
+        <v>3407203371.652565</v>
       </c>
       <c r="F8" t="n">
-        <v>0.145041902949934</v>
+        <v>0.1355867437252589</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02675878656560834</v>
+        <v>0.02189332750120914</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1268184175.360296</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1695817761.040113</v>
+        <v>1687579157.223666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1834278157087484</v>
+        <v>0.1557958801726758</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03383729933317856</v>
+        <v>0.03226167235435926</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>847908949.2587872</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5318339856.922675</v>
+        <v>4115676371.598933</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2119024711996892</v>
+        <v>0.1751800323773471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0412057467579466</v>
+        <v>0.05325044440947557</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2659170052.338563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3875562711.100605</v>
+        <v>3203390524.011165</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1533875860803489</v>
+        <v>0.1478491968434509</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04250352333664805</v>
+        <v>0.03713958014886848</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>31</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1937781359.510482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2366096841.761705</v>
+        <v>2378361606.275407</v>
       </c>
       <c r="F12" t="n">
-        <v>0.120313219940733</v>
+        <v>0.1404483693171655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05306126890259951</v>
+        <v>0.05036724045379073</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1183048380.772621</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4137380621.635465</v>
+        <v>4619900115.423021</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06447508860938955</v>
+        <v>0.09463432945263052</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02088884095617057</v>
+        <v>0.03142809302160167</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2068690358.685107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3253476413.126674</v>
+        <v>3568311020.525178</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1433850795261085</v>
+        <v>0.1603337688546244</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04218148738570926</v>
+        <v>0.04272856685240337</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1626738222.530229</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1465701749.042612</v>
+        <v>1132398556.033972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085549613060527</v>
+        <v>0.08500158824102567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03539621167077505</v>
+        <v>0.03042259978103266</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>732850952.1543194</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2824367077.203995</v>
+        <v>2718515993.404655</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008741125341681</v>
+        <v>0.09724945114904159</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04371363085951282</v>
+        <v>0.05060589993640856</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1412183540.347553</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4401001940.79097</v>
+        <v>5179065224.910938</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1641248407491839</v>
+        <v>0.125092666548472</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04606709981964258</v>
+        <v>0.03987419622555922</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>22</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2200500985.035137</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3995122736.774466</v>
+        <v>3432852217.343471</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1721990781832767</v>
+        <v>0.1587176141944292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02466283507496769</v>
+        <v>0.02904729741210535</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>24</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1997561326.502336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1008342345.054047</v>
+        <v>988712383.9958113</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1649156337800658</v>
+        <v>0.1340321280422865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0180526300285624</v>
+        <v>0.01715666311000988</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>504171203.7506669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2379296171.205661</v>
+        <v>2696707224.532941</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1013707823303702</v>
+        <v>0.1086548902688486</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0242153527896177</v>
+        <v>0.02906703481759474</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1189648071.443457</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2076253271.075271</v>
+        <v>2327429612.837847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0889736251819452</v>
+        <v>0.0618949529227564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03632695780987848</v>
+        <v>0.028371855612774</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1038126664.095976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4014459205.230309</v>
+        <v>2663155189.339625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1380453641402674</v>
+        <v>0.09573069570323127</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03802261309466514</v>
+        <v>0.04020379804441541</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2007229603.299133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1078705571.152081</v>
+        <v>1308601313.925996</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1486512906909798</v>
+        <v>0.1238892038172611</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04848247089794802</v>
+        <v>0.04335916874787049</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>539352842.4131469</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2748279252.525245</v>
+        <v>2871091302.805137</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09580065291642974</v>
+        <v>0.1027974071597814</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02584003780086742</v>
+        <v>0.02358139031708824</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1374139678.344595</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1471144661.754789</v>
+        <v>1336220272.779018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.114905519652487</v>
+        <v>0.07539816454396044</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02966904978265559</v>
+        <v>0.02849716999650915</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>735572286.3787947</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1397552727.408441</v>
+        <v>968386779.0181344</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1032825732992982</v>
+        <v>0.09855722643203162</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03298331890247604</v>
+        <v>0.03344915469630802</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>698776433.0062653</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3878811286.100756</v>
+        <v>3684321589.808476</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1232624680139209</v>
+        <v>0.1186286609248301</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02555036946440864</v>
+        <v>0.02309709802198243</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1939405659.145892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2846675006.644925</v>
+        <v>2479523656.043923</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1018438107164523</v>
+        <v>0.1232262537588725</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04781789715917348</v>
+        <v>0.03786387411603116</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1423337501.125015</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3977442627.158082</v>
+        <v>5553519462.251157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1293866620049358</v>
+        <v>0.1274770361534646</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03177820573039174</v>
+        <v>0.04180744839370767</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>35</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1988721331.978396</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1499324047.759349</v>
+        <v>2173119930.958806</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1081143864548396</v>
+        <v>0.1242170027713116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02817730610810696</v>
+        <v>0.03778398245776118</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>749662004.1964165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1065943382.433942</v>
+        <v>1060185062.487549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08427181696344173</v>
+        <v>0.09154199226797868</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0483885479711121</v>
+        <v>0.03987951469442826</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>532971674.1337158</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1496659789.307475</v>
+        <v>1615105706.810815</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07674329955863922</v>
+        <v>0.1167008850397733</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02393024862396558</v>
+        <v>0.03544820572165798</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>748329962.2315688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2678987350.403735</v>
+        <v>1932742766.56326</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1975462821099696</v>
+        <v>0.1584253452383996</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05820247629144334</v>
+        <v>0.04590485687312627</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>21</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1339493698.071614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1540694964.259737</v>
+        <v>1125209305.609535</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1096762114977935</v>
+        <v>0.1011322225650948</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02539136549422745</v>
+        <v>0.02524140934492461</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>770347431.1980157</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>993889494.0897827</v>
+        <v>960059317.0916966</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1060545825441621</v>
+        <v>0.1108866518988439</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03964593148293672</v>
+        <v>0.03847362237562937</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>496944766.8738779</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2608645305.312589</v>
+        <v>3017973290.473838</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1465101400666391</v>
+        <v>0.1713561269772352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02593120068844803</v>
+        <v>0.02291919690594288</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1304322665.819146</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1799507095.169886</v>
+        <v>2566155634.022911</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08982362963940933</v>
+        <v>0.1015017476947379</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03331740218211304</v>
+        <v>0.04081888148337303</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>19</v>
-      </c>
-      <c r="J37" t="n">
-        <v>899753547.2129657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1466781222.509071</v>
+        <v>1730571224.431498</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086662577051497</v>
+        <v>0.1019858681441796</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03933028403125029</v>
+        <v>0.02943844359127375</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>733390665.1063902</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1581869277.621399</v>
+        <v>1561789109.771152</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581044620515151</v>
+        <v>0.1916416414881751</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02873738395062288</v>
+        <v>0.03259265862753082</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>790934696.754002</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1644147322.542629</v>
+        <v>1161555999.503644</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1286684749899912</v>
+        <v>0.124741144729311</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05167438281068475</v>
+        <v>0.05990332424427164</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>822073591.2974589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2124477217.474391</v>
+        <v>2418894854.479912</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1373231591585909</v>
+        <v>0.1408065734935528</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04350409451817375</v>
+        <v>0.0452830139955809</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1062238670.720866</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3478325187.624644</v>
+        <v>4008201268.249892</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09733556730926841</v>
+        <v>0.09479483969111405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04443235354564241</v>
+        <v>0.03362556638225792</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>25</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1739162587.102618</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2219286941.733288</v>
+        <v>2911335194.902804</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1755446684744866</v>
+        <v>0.1517388746182645</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02379211297245896</v>
+        <v>0.02542906848162985</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>26</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1109643547.669878</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2199706961.810338</v>
+        <v>1571299424.957807</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07078321013776957</v>
+        <v>0.08796056983052432</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03090773161483079</v>
+        <v>0.03573841424629939</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1099853626.997483</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2152992195.243302</v>
+        <v>2251414880.313685</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1546877976017398</v>
+        <v>0.1438695660928589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05044814691748522</v>
+        <v>0.03640926680794002</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1076496103.813172</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5518432356.106452</v>
+        <v>5595868445.691778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1366789528487107</v>
+        <v>0.1323982110620452</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04577502071250497</v>
+        <v>0.03837196386732202</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>27</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2759216234.423661</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4903140152.610644</v>
+        <v>5017780917.353971</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2002098324137291</v>
+        <v>0.1666333815043178</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05364803770939576</v>
+        <v>0.05355888105423878</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2451570126.531546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3484419709.727086</v>
+        <v>3009237541.84796</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09556564301822479</v>
+        <v>0.07489003254676697</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03787630356106226</v>
+        <v>0.03644213881421379</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1742209919.105075</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1361763745.332809</v>
+        <v>1247389991.028579</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1859696275745713</v>
+        <v>0.1468672386968401</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03412070264541472</v>
+        <v>0.04144037259660413</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>680881926.1031125</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3952324378.369836</v>
+        <v>2894052386.673829</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1686377090847767</v>
+        <v>0.1583095333754865</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05340703963037492</v>
+        <v>0.05317867711414767</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>25</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1976162181.147832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1003267206.847178</v>
+        <v>1182398566.395024</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1200742363238252</v>
+        <v>0.1352881754698303</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04554044494437916</v>
+        <v>0.04622882738141962</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>501633686.7823811</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5153193585.773816</v>
+        <v>4895600886.562278</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1184017146514705</v>
+        <v>0.1235700119403215</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05626888843380391</v>
+        <v>0.05137037855165365</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>31</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2576596781.400095</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3163893424.103787</v>
+        <v>2435226760.469646</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1916162916532657</v>
+        <v>0.1556822079207748</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03143452123663914</v>
+        <v>0.03033498074494817</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>22</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1581946733.077536</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3286225784.267475</v>
+        <v>3898886860.087918</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1510738488278363</v>
+        <v>0.1578881981639525</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04296895830527744</v>
+        <v>0.04786689953930515</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1643112900.078247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3696110918.397708</v>
+        <v>4760675547.491936</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1595525695514275</v>
+        <v>0.1536070407739234</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03066453634802916</v>
+        <v>0.02602472372379682</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1848055420.601332</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1600198826.385797</v>
+        <v>1771091756.618287</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1114962066987979</v>
+        <v>0.1374847607450009</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04802935802454424</v>
+        <v>0.04939788286500401</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>800099440.5150504</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2968860661.466818</v>
+        <v>4481665543.047139</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1241988395450062</v>
+        <v>0.1385411304484335</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02260693225892198</v>
+        <v>0.01953458783029867</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>24</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1484430332.438131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1250793489.11481</v>
+        <v>1226206877.08207</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1611873737241958</v>
+        <v>0.17970185976919</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03931607257087857</v>
+        <v>0.03289235379133209</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>625396798.3303642</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3985409426.645589</v>
+        <v>4498491652.371511</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1256886681584473</v>
+        <v>0.1101629882027212</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04690844164678059</v>
+        <v>0.04919834748413079</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1992704689.86184</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3399313009.896174</v>
+        <v>2864131216.258434</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1255836815500287</v>
+        <v>0.1296649008766056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02101306890404238</v>
+        <v>0.03108138956748339</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>24</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1699656617.079684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2071363663.854762</v>
+        <v>2302635614.384206</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1783502839803262</v>
+        <v>0.1084932516759877</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02541351520252149</v>
+        <v>0.02259486142217408</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1035681899.879109</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2106232839.278017</v>
+        <v>1386823089.31355</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1734372949423837</v>
+        <v>0.1693652799478264</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04128336245637088</v>
+        <v>0.04182309789482171</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1053116493.57206</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3598122241.463758</v>
+        <v>3499376028.715043</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09868284772026388</v>
+        <v>0.08568853742134747</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03910100990877884</v>
+        <v>0.03379037408793413</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>21</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1799061200.959826</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3789914826.409882</v>
+        <v>3593993200.931936</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1329164557838646</v>
+        <v>0.1666183860609617</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02192762832181901</v>
+        <v>0.03247812863440911</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>23</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1894957434.196151</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4742131648.556657</v>
+        <v>5011106669.110332</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1158437455250492</v>
+        <v>0.1192326415594645</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01999015096022868</v>
+        <v>0.02575110821375293</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>27</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2371065798.489035</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5427840277.152947</v>
+        <v>3606815544.709532</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1264098228859755</v>
+        <v>0.1002016642661619</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0456885528180554</v>
+        <v>0.04085091944466852</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>22</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2713920188.569228</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3288118042.534007</v>
+        <v>3145394030.095522</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07106796903870637</v>
+        <v>0.09361259430038406</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03784410992721422</v>
+        <v>0.04438796547532229</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1644059015.023537</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3766496224.070659</v>
+        <v>4130002914.226381</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1140550951769729</v>
+        <v>0.1138297363990891</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04530491177710953</v>
+        <v>0.04678904883607125</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>24</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1883248093.588934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2075398622.416195</v>
+        <v>1874363759.798075</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1763461070115507</v>
+        <v>0.1670575793847918</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05459272146052462</v>
+        <v>0.04539131375143557</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1037699325.842636</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2348231778.584447</v>
+        <v>3038988543.964083</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0778433383484156</v>
+        <v>0.08343857550014287</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04541221464821002</v>
+        <v>0.03495471216251712</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1174115823.798401</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4059651668.552478</v>
+        <v>5051537930.009741</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1493560573231685</v>
+        <v>0.1218916669337567</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02586606529735222</v>
+        <v>0.02954100500755752</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2029825869.711465</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1540208269.228969</v>
+        <v>1979392924.105049</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09319864574665901</v>
+        <v>0.07198469870624226</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03603637677844719</v>
+        <v>0.04760815008618124</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>770104155.0243379</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2869580390.697398</v>
+        <v>3231993104.170797</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07431940099519831</v>
+        <v>0.09241510638521441</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0507784109931691</v>
+        <v>0.03579766482033408</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>28</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1434790203.177123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3901310184.831686</v>
+        <v>4008926152.638153</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1431579617905508</v>
+        <v>0.1824872882618998</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02935545226881404</v>
+        <v>0.02540159100394125</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1950655079.808484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2087379289.179437</v>
+        <v>1690053588.220254</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1513356192957105</v>
+        <v>0.1348712960202423</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03111879187912011</v>
+        <v>0.02838239426260442</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1043689600.532223</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3470036577.925612</v>
+        <v>4958272033.79038</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051941386647263</v>
+        <v>0.1233588206865364</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02675441949222329</v>
+        <v>0.02686330783950659</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>16</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1735018251.349332</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1608587638.969335</v>
+        <v>1666622335.108707</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1284063075469049</v>
+        <v>0.1531128922035484</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01975155560187232</v>
+        <v>0.03024510126641896</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>804293823.0923587</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3709675392.475275</v>
+        <v>4241900066.116313</v>
       </c>
       <c r="F78" t="n">
-        <v>0.116750416932339</v>
+        <v>0.09316837638395181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04715662248474046</v>
+        <v>0.05175963197702999</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>27</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1854837682.655147</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1754390773.143629</v>
+        <v>1642853709.634728</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1363930854878574</v>
+        <v>0.1473194477411182</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02651986485600836</v>
+        <v>0.03810195827659263</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>877195465.1762352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4502331162.610229</v>
+        <v>4624185828.548964</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1111671297343929</v>
+        <v>0.07243774452225012</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03428970130271038</v>
+        <v>0.03524679511094974</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2251165605.666692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3597977039.804789</v>
+        <v>5103412519.228833</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08852510496298156</v>
+        <v>0.1207536039052412</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02306988797720712</v>
+        <v>0.03135238055712154</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>17</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1798988468.063686</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5431180291.162791</v>
+        <v>5107294708.909133</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2034004694164563</v>
+        <v>0.1815207389184702</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01907800052534075</v>
+        <v>0.02145265981344782</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>27</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2715590105.392877</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2052668847.18821</v>
+        <v>1732016103.148722</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1047491355207622</v>
+        <v>0.1107700959893497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03034652425560391</v>
+        <v>0.04556647093700841</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1026334415.33245</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1614174860.547119</v>
+        <v>2394456645.734487</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1149128262249012</v>
+        <v>0.07410257873144266</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03194033215947185</v>
+        <v>0.04464577132310757</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>807087491.6885781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2837570461.611447</v>
+        <v>2709621201.232461</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1839950399351543</v>
+        <v>0.1393376537233847</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05144671744317157</v>
+        <v>0.0391058780146011</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1418785272.9419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2531980326.452024</v>
+        <v>1695789400.901558</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1172984420532273</v>
+        <v>0.1652487997708216</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02733910424936257</v>
+        <v>0.02578959933866254</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1265990264.731962</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1265588860.904431</v>
+        <v>1153962346.680459</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1610552478483828</v>
+        <v>0.1645566561808142</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02920293060054736</v>
+        <v>0.03370007095012511</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>632794502.7625375</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2647818092.562021</v>
+        <v>3500734775.144204</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1172059818563576</v>
+        <v>0.1563491621434714</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03385692924818789</v>
+        <v>0.03072725907420915</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>29</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1323909041.841506</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2675217347.335035</v>
+        <v>2940910535.738478</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1185140964794496</v>
+        <v>0.1451789905510694</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02748887730079028</v>
+        <v>0.02662146664960374</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>25</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1337608735.489809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1715200834.384458</v>
+        <v>1405029882.876721</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1099000359948505</v>
+        <v>0.1104661483080606</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05113750884073708</v>
+        <v>0.05255499023325341</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>857600435.1954798</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1893570564.935344</v>
+        <v>1617554768.215585</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1296560096411423</v>
+        <v>0.1267720877960922</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04858146317219421</v>
+        <v>0.04528067519623826</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>946785268.8290584</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2450249865.749639</v>
+        <v>2468703281.31402</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07699803351828215</v>
+        <v>0.09671640215644196</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04594464402093736</v>
+        <v>0.03923098980321543</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>16</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1225124912.971678</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4604254550.602052</v>
+        <v>4202659354.702275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09714947212780999</v>
+        <v>0.106341791442139</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04874945430667639</v>
+        <v>0.04942199569644298</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>22</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2302127236.774847</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1560327973.785264</v>
+        <v>2292851071.672888</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1348749088292529</v>
+        <v>0.1109792976279151</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04038066429462521</v>
+        <v>0.03034952083590747</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>780163927.8814908</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2146179860.852509</v>
+        <v>3136565678.199898</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1347476592547403</v>
+        <v>0.1252311485129788</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04647392821571043</v>
+        <v>0.03969086554754613</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>17</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1073089992.141222</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1619752116.59149</v>
+        <v>1535299411.317759</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09300184327419161</v>
+        <v>0.09959763226007243</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0356284362321438</v>
+        <v>0.03560288502293665</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>809876085.7740985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3319403311.318459</v>
+        <v>3622162870.231965</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1413640524700462</v>
+        <v>0.1627700004631713</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02694176316971976</v>
+        <v>0.02095472332481997</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>25</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1659701657.205683</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3139743064.593474</v>
+        <v>3188400391.722523</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09016604328936954</v>
+        <v>0.110721174329123</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02059163280334792</v>
+        <v>0.02392194552697901</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>20</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1569871526.371041</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2926663859.147966</v>
+        <v>2820385570.710496</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1068532027216369</v>
+        <v>0.128676824980902</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0281722110466504</v>
+        <v>0.03479298255252403</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1463331910.156264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3034875706.118645</v>
+        <v>2942609509.125961</v>
       </c>
       <c r="F100" t="n">
-        <v>0.134907644989325</v>
+        <v>0.1493163930089048</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02675983513133622</v>
+        <v>0.02655209566107623</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>23</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1517437846.623672</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2624527871.951492</v>
+        <v>2916002853.498636</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1920144184873755</v>
+        <v>0.1770797176350542</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03578766007121826</v>
+        <v>0.03639833735554309</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>32</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1312263975.344206</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_75.xlsx
+++ b/output/fit_clients/fit_round_75.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1990422663.581638</v>
+        <v>2121782895.291461</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07532671380807969</v>
+        <v>0.09632405951518459</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03449274796667566</v>
+        <v>0.03495004044133768</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1639420968.846245</v>
+        <v>2644327863.361705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1437639947655232</v>
+        <v>0.1291683452848115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04568542836066124</v>
+        <v>0.04181650114802554</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3655118866.499289</v>
+        <v>4796678834.255381</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1449526327870936</v>
+        <v>0.1096046995108531</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03116153524114404</v>
+        <v>0.0232241880395438</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3729279063.141557</v>
+        <v>2737637765.614471</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06869746785938929</v>
+        <v>0.07969163877071501</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04924681621300239</v>
+        <v>0.04363176266320972</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1826878475.658149</v>
+        <v>2120947845.584883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.146883907588332</v>
+        <v>0.09898303118833685</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03615945807184361</v>
+        <v>0.04658321998551708</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2392415362.812657</v>
+        <v>2738273755.024876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08700977916672216</v>
+        <v>0.08576725276157515</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03317397669967235</v>
+        <v>0.0372845602535907</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3407203371.652565</v>
+        <v>2437188049.268331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1355867437252589</v>
+        <v>0.1700627287387911</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02189332750120914</v>
+        <v>0.0309798999869838</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1687579157.223666</v>
+        <v>1735868872.440867</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1557958801726758</v>
+        <v>0.163095970606164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03226167235435926</v>
+        <v>0.0265967683214862</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4115676371.598933</v>
+        <v>5116926175.439744</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1751800323773471</v>
+        <v>0.156552381156281</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05325044440947557</v>
+        <v>0.05193093244237185</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3203390524.011165</v>
+        <v>3863254131.742658</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1478491968434509</v>
+        <v>0.1379511781793543</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03713958014886848</v>
+        <v>0.03390141962714958</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2378361606.275407</v>
+        <v>3245241403.458347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1404483693171655</v>
+        <v>0.1953093736679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05036724045379073</v>
+        <v>0.04990397166198212</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4619900115.423021</v>
+        <v>5353974401.18888</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09463432945263052</v>
+        <v>0.06985793306847791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03142809302160167</v>
+        <v>0.02267418742467052</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3568311020.525178</v>
+        <v>3142239300.57598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1603337688546244</v>
+        <v>0.1739172830136379</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04272856685240337</v>
+        <v>0.03575625498102239</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1132398556.033972</v>
+        <v>1577047820.302062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08500158824102567</v>
+        <v>0.09996231697431</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03042259978103266</v>
+        <v>0.03779204165839507</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2718515993.404655</v>
+        <v>2209816727.096335</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09724945114904159</v>
+        <v>0.0895692995047677</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05060589993640856</v>
+        <v>0.03908403598241742</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5179065224.910938</v>
+        <v>3531545793.480083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.125092666548472</v>
+        <v>0.1067711551397088</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03987419622555922</v>
+        <v>0.04139014877165283</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3432852217.343471</v>
+        <v>2629676736.5438</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1587176141944292</v>
+        <v>0.1498185028771487</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02904729741210535</v>
+        <v>0.0242966681805478</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>988712383.9958113</v>
+        <v>1091085195.95096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1340321280422865</v>
+        <v>0.1362094761149335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01715666311000988</v>
+        <v>0.02304009359355685</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2696707224.532941</v>
+        <v>2808900215.653786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1086548902688486</v>
+        <v>0.1587130606828084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02906703481759474</v>
+        <v>0.0259735213677494</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2327429612.837847</v>
+        <v>1712689660.338348</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0618949529227564</v>
+        <v>0.06629249564875662</v>
       </c>
       <c r="G21" t="n">
-        <v>0.028371855612774</v>
+        <v>0.04108791431435806</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2663155189.339625</v>
+        <v>2894564736.132109</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09573069570323127</v>
+        <v>0.1271701340892902</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04020379804441541</v>
+        <v>0.04605930110525302</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1308601313.925996</v>
+        <v>1472639823.161094</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1238892038172611</v>
+        <v>0.167236101563999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04335916874787049</v>
+        <v>0.0539482395356373</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2871091302.805137</v>
+        <v>2813882065.064167</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1027974071597814</v>
+        <v>0.09876498247818925</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02358139031708824</v>
+        <v>0.03024303253974334</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336220272.779018</v>
+        <v>1115521548.406831</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07539816454396044</v>
+        <v>0.09379463929831303</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02849716999650915</v>
+        <v>0.02815721554483193</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968386779.0181344</v>
+        <v>1392826098.372714</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09855722643203162</v>
+        <v>0.09042636761551211</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03344915469630802</v>
+        <v>0.03485262010553437</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3684321589.808476</v>
+        <v>2866130866.62328</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1186286609248301</v>
+        <v>0.1422953020508445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02309709802198243</v>
+        <v>0.02666938564255164</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2479523656.043923</v>
+        <v>3008741090.917033</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1232262537588725</v>
+        <v>0.1466976310038506</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03786387411603116</v>
+        <v>0.04798959552873472</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5553519462.251157</v>
+        <v>5759698585.046997</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1274770361534646</v>
+        <v>0.1047364407641845</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04180744839370767</v>
+        <v>0.03015987167865642</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2173119930.958806</v>
+        <v>2380678928.142467</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1242170027713116</v>
+        <v>0.09359571381474727</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03778398245776118</v>
+        <v>0.03908069688791961</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1060185062.487549</v>
+        <v>1476952744.052346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09154199226797868</v>
+        <v>0.1012869083742845</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03987951469442826</v>
+        <v>0.04691952129417947</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1615105706.810815</v>
+        <v>1578930799.554102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167008850397733</v>
+        <v>0.09099080734409087</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03544820572165798</v>
+        <v>0.03878059777600258</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1932742766.56326</v>
+        <v>2552032644.284941</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1584253452383996</v>
+        <v>0.1745416529211238</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04590485687312627</v>
+        <v>0.04944710380029237</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1125209305.609535</v>
+        <v>1204481838.405632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1011322225650948</v>
+        <v>0.1019532971643955</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02524140934492461</v>
+        <v>0.02012597642418268</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>960059317.0916966</v>
+        <v>1213072928.531718</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108866518988439</v>
+        <v>0.1100309574721065</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03847362237562937</v>
+        <v>0.03741966372241444</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3017973290.473838</v>
+        <v>2978669755.954063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1713561269772352</v>
+        <v>0.1483734451084098</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02291919690594288</v>
+        <v>0.02138602881779631</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2566155634.022911</v>
+        <v>2628440705.596483</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1015017476947379</v>
+        <v>0.09502011439411862</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04081888148337303</v>
+        <v>0.04174233842031033</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1730571224.431498</v>
+        <v>1648983368.30715</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1019858681441796</v>
+        <v>0.1139800781589883</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02943844359127375</v>
+        <v>0.03806917622433909</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1561789109.771152</v>
+        <v>1817938941.251751</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1916416414881751</v>
+        <v>0.1663773244934599</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03259265862753082</v>
+        <v>0.02674219816920041</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1161555999.503644</v>
+        <v>1668503956.371078</v>
       </c>
       <c r="F40" t="n">
-        <v>0.124741144729311</v>
+        <v>0.1032408916168207</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05990332424427164</v>
+        <v>0.04120821828577636</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2418894854.479912</v>
+        <v>2387327845.12657</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1408065734935528</v>
+        <v>0.1162471673110497</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0452830139955809</v>
+        <v>0.04082262924760974</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4008201268.249892</v>
+        <v>3130107132.502103</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09479483969111405</v>
+        <v>0.1258089822027183</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03362556638225792</v>
+        <v>0.03139984421093947</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2911335194.902804</v>
+        <v>2665932077.3112</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1517388746182645</v>
+        <v>0.1603907136439915</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02542906848162985</v>
+        <v>0.01781254274439952</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1571299424.957807</v>
+        <v>2096597262.496098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08796056983052432</v>
+        <v>0.06263728462222164</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03573841424629939</v>
+        <v>0.02435360125525829</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251414880.313685</v>
+        <v>1609585912.96073</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1438695660928589</v>
+        <v>0.1744789395808188</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03640926680794002</v>
+        <v>0.05558880525678371</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5595868445.691778</v>
+        <v>3993276716.258442</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1323982110620452</v>
+        <v>0.1402604715101752</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03837196386732202</v>
+        <v>0.05034507503716499</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5017780917.353971</v>
+        <v>4570584167.313994</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1666333815043178</v>
+        <v>0.1781642244357552</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05355888105423878</v>
+        <v>0.03858652749550021</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3009237541.84796</v>
+        <v>3503924559.645682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07489003254676697</v>
+        <v>0.08772485694172454</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03644213881421379</v>
+        <v>0.02827389069345128</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1247389991.028579</v>
+        <v>1547187462.126828</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1468672386968401</v>
+        <v>0.1226971750505485</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04144037259660413</v>
+        <v>0.03739479401637109</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2894052386.673829</v>
+        <v>3053453613.385053</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1583095333754865</v>
+        <v>0.115060724948</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05317867711414767</v>
+        <v>0.04714330987015406</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1182398566.395024</v>
+        <v>1038160506.472112</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1352881754698303</v>
+        <v>0.1205328417469992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04622882738141962</v>
+        <v>0.04349536658847097</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4895600886.562278</v>
+        <v>4315973883.372955</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1235700119403215</v>
+        <v>0.1048332754382849</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05137037855165365</v>
+        <v>0.06055715809325255</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2435226760.469646</v>
+        <v>3450399179.498414</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1556822079207748</v>
+        <v>0.1794891656504405</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03033498074494817</v>
+        <v>0.03515737165527438</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3898886860.087918</v>
+        <v>3319524251.413135</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1578881981639525</v>
+        <v>0.1223433935128318</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04786689953930515</v>
+        <v>0.0414989507161841</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4760675547.491936</v>
+        <v>3269394191.002371</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1536070407739234</v>
+        <v>0.1710663738360213</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02602472372379682</v>
+        <v>0.03246078840949509</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1771091756.618287</v>
+        <v>1596132897.670146</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1374847607450009</v>
+        <v>0.1013525935799196</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04939788286500401</v>
+        <v>0.04550084216027333</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4481665543.047139</v>
+        <v>3676232149.059626</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1385411304484335</v>
+        <v>0.1814955989582647</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01953458783029867</v>
+        <v>0.02651242237451728</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1226206877.08207</v>
+        <v>1214934397.146991</v>
       </c>
       <c r="F58" t="n">
-        <v>0.17970185976919</v>
+        <v>0.1277997182574422</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03289235379133209</v>
+        <v>0.03160099719880462</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4498491652.371511</v>
+        <v>5111755529.867659</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1101629882027212</v>
+        <v>0.1014910489773499</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04919834748413079</v>
+        <v>0.04411535966423592</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864131216.258434</v>
+        <v>3619076698.447805</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1296649008766056</v>
+        <v>0.1570629985651326</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03108138956748339</v>
+        <v>0.02786488662243817</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2302635614.384206</v>
+        <v>3085684428.946535</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1084932516759877</v>
+        <v>0.112416001372212</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02259486142217408</v>
+        <v>0.03226248033715078</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1386823089.31355</v>
+        <v>1579030899.980194</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1693652799478264</v>
+        <v>0.1320149138000284</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04182309789482171</v>
+        <v>0.03267076059392919</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3499376028.715043</v>
+        <v>5200153822.676166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08568853742134747</v>
+        <v>0.09869684998658679</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03379037408793413</v>
+        <v>0.03469909228464224</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3593993200.931936</v>
+        <v>3548061388.414547</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1666183860609617</v>
+        <v>0.1774278122329003</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03247812863440911</v>
+        <v>0.02347635909061865</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5011106669.110332</v>
+        <v>3771816292.329187</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1192326415594645</v>
+        <v>0.1066669351295318</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02575110821375293</v>
+        <v>0.02824638089840635</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3606815544.709532</v>
+        <v>3451686679.302691</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1002016642661619</v>
+        <v>0.1297543854395146</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04085091944466852</v>
+        <v>0.04326142808119968</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3145394030.095522</v>
+        <v>2384134221.990095</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09361259430038406</v>
+        <v>0.09749795101240609</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04438796547532229</v>
+        <v>0.03681900380133808</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4130002914.226381</v>
+        <v>4254195269.260799</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1138297363990891</v>
+        <v>0.1367581786762145</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04678904883607125</v>
+        <v>0.03308712632242325</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1874363759.798075</v>
+        <v>2028239768.086409</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1670575793847918</v>
+        <v>0.1379803929096926</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04539131375143557</v>
+        <v>0.04870015554707333</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3038988543.964083</v>
+        <v>2485606714.694349</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08343857550014287</v>
+        <v>0.06549702822219128</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03495471216251712</v>
+        <v>0.03431739232567235</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5051537930.009741</v>
+        <v>4621525447.555624</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1218916669337567</v>
+        <v>0.1200458570322462</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02954100500755752</v>
+        <v>0.023271968973591</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1979392924.105049</v>
+        <v>1552915037.228546</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07198469870624226</v>
+        <v>0.1024317006644843</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04760815008618124</v>
+        <v>0.04304426066088313</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3231993104.170797</v>
+        <v>2627025338.298236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09241510638521441</v>
+        <v>0.1114398985353609</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03579766482033408</v>
+        <v>0.0502510635725013</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4008926152.638153</v>
+        <v>2459501752.385456</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1824872882618998</v>
+        <v>0.1752658621140763</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02540159100394125</v>
+        <v>0.02452567199256871</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1690053588.220254</v>
+        <v>2058081721.223731</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1348712960202423</v>
+        <v>0.1146181606751467</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02838239426260442</v>
+        <v>0.02466885511919054</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4958272033.79038</v>
+        <v>4376930729.132421</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1233588206865364</v>
+        <v>0.1007323573741358</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02686330783950659</v>
+        <v>0.02527520252365893</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1666622335.108707</v>
+        <v>1551680489.014356</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1531128922035484</v>
+        <v>0.1184550358256134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03024510126641896</v>
+        <v>0.0238716234803178</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4241900066.116313</v>
+        <v>3036039108.074386</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09316837638395181</v>
+        <v>0.1220959983492229</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05175963197702999</v>
+        <v>0.05312315191406165</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1642853709.634728</v>
+        <v>1323763331.198543</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1473194477411182</v>
+        <v>0.1127576280275404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03810195827659263</v>
+        <v>0.03441522919623353</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4624185828.548964</v>
+        <v>3930181505.943999</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07243774452225012</v>
+        <v>0.08255934361779656</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03524679511094974</v>
+        <v>0.02815462880763077</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5103412519.228833</v>
+        <v>3598237462.22116</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1207536039052412</v>
+        <v>0.1100314408161279</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03135238055712154</v>
+        <v>0.02774538766773254</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5107294708.909133</v>
+        <v>4301907904.378647</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1815207389184702</v>
+        <v>0.1873789269897859</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02145265981344782</v>
+        <v>0.01804682093781954</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1732016103.148722</v>
+        <v>1893012749.045325</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1107700959893497</v>
+        <v>0.1219187018854333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04556647093700841</v>
+        <v>0.03295845323417784</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2394456645.734487</v>
+        <v>1857155749.986375</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07410257873144266</v>
+        <v>0.08744234753961644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04464577132310757</v>
+        <v>0.04447206196683918</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2709621201.232461</v>
+        <v>3386226054.40235</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1393376537233847</v>
+        <v>0.1824447622278359</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0391058780146011</v>
+        <v>0.04618202656619835</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1695789400.901558</v>
+        <v>2666455610.04674</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1652487997708216</v>
+        <v>0.1688396715568588</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02578959933866254</v>
+        <v>0.02449642812689628</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1153962346.680459</v>
+        <v>1440084941.346522</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1645566561808142</v>
+        <v>0.1626758768587203</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03370007095012511</v>
+        <v>0.04077068256028107</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3500734775.144204</v>
+        <v>3138752252.798467</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1563491621434714</v>
+        <v>0.1101224356523458</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03072725907420915</v>
+        <v>0.03711965664379272</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2940910535.738478</v>
+        <v>3254917512.140516</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1451789905510694</v>
+        <v>0.150802436119391</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02662146664960374</v>
+        <v>0.02945252130871594</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1405029882.876721</v>
+        <v>1434526463.562688</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1104661483080606</v>
+        <v>0.09975829575968312</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05255499023325341</v>
+        <v>0.05289191566979859</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1617554768.215585</v>
+        <v>1297815509.032058</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1267720877960922</v>
+        <v>0.1732988849121359</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04528067519623826</v>
+        <v>0.04332976163338839</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2468703281.31402</v>
+        <v>2760866184.163884</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09671640215644196</v>
+        <v>0.09862099964207373</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03923098980321543</v>
+        <v>0.02919842254511493</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4202659354.702275</v>
+        <v>3830565652.403701</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106341791442139</v>
+        <v>0.09570251756245236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04942199569644298</v>
+        <v>0.04304610451418632</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2292851071.672888</v>
+        <v>1672560848.724005</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1109792976279151</v>
+        <v>0.1498771139654259</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03034952083590747</v>
+        <v>0.04231327644434378</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3136565678.199898</v>
+        <v>2880406612.58448</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1252311485129788</v>
+        <v>0.1126347441629677</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03969086554754613</v>
+        <v>0.03360717595719324</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1535299411.317759</v>
+        <v>1759193252.871822</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09959763226007243</v>
+        <v>0.08824418351899703</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03560288502293665</v>
+        <v>0.03048224973932857</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3622162870.231965</v>
+        <v>4806433725.4842</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1627700004631713</v>
+        <v>0.1141917196828939</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02095472332481997</v>
+        <v>0.02599722965212995</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3188400391.722523</v>
+        <v>2712760402.401645</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110721174329123</v>
+        <v>0.09197535763513857</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02392194552697901</v>
+        <v>0.02816151869850297</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2820385570.710496</v>
+        <v>2678672775.759581</v>
       </c>
       <c r="F99" t="n">
-        <v>0.128676824980902</v>
+        <v>0.09919269045850666</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03479298255252403</v>
+        <v>0.02236595318051574</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2942609509.125961</v>
+        <v>3742990444.834963</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1493163930089048</v>
+        <v>0.1316763040333283</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02655209566107623</v>
+        <v>0.02225192914667027</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2916002853.498636</v>
+        <v>3000106123.775543</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1770797176350542</v>
+        <v>0.2020006204880341</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03639833735554309</v>
+        <v>0.04097928358765747</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_75.xlsx
+++ b/output/fit_clients/fit_round_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2121782895.291461</v>
+        <v>2175757351.117835</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09632405951518459</v>
+        <v>0.07057531549288075</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03495004044133768</v>
+        <v>0.04277801770866756</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2644327863.361705</v>
+        <v>1826065098.836281</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1291683452848115</v>
+        <v>0.1694307570112113</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04181650114802554</v>
+        <v>0.03912848932776069</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4796678834.255381</v>
+        <v>4806271940.421917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1096046995108531</v>
+        <v>0.1053193714319812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0232241880395438</v>
+        <v>0.02920243787287681</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2737637765.614471</v>
+        <v>3738613090.0797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07969163877071501</v>
+        <v>0.07748691547054563</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04363176266320972</v>
+        <v>0.03404304115375267</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2120947845.584883</v>
+        <v>2559212904.625159</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09898303118833685</v>
+        <v>0.1231678390546069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04658321998551708</v>
+        <v>0.03583836082244239</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2738273755.024876</v>
+        <v>2595657247.770637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08576725276157515</v>
+        <v>0.06643370508970342</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0372845602535907</v>
+        <v>0.04240179636755462</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2437188049.268331</v>
+        <v>3076502567.439956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1700627287387911</v>
+        <v>0.1527126462388638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0309798999869838</v>
+        <v>0.03251547407380225</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>18</v>
+      </c>
+      <c r="J8" t="n">
+        <v>73</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1735868872.440867</v>
+        <v>2031300144.187639</v>
       </c>
       <c r="F9" t="n">
-        <v>0.163095970606164</v>
+        <v>0.186033926053821</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0265967683214862</v>
+        <v>0.02644778611707699</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5116926175.439744</v>
+        <v>5499645351.698977</v>
       </c>
       <c r="F10" t="n">
-        <v>0.156552381156281</v>
+        <v>0.171350588180121</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05193093244237185</v>
+        <v>0.03651720281138872</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>69</v>
+      </c>
+      <c r="J10" t="n">
+        <v>75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>202.6083373506804</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3863254131.742658</v>
+        <v>3294697752.191861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379511781793543</v>
+        <v>0.1681228217447923</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03390141962714958</v>
+        <v>0.03259532507947269</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3245241403.458347</v>
+        <v>3222974790.802326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1953093736679</v>
+        <v>0.1264595473843289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04990397166198212</v>
+        <v>0.03401621735412686</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5353974401.18888</v>
+        <v>3641037429.042272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06985793306847791</v>
+        <v>0.06994264618315137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02267418742467052</v>
+        <v>0.03024428126866549</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>38</v>
+      </c>
+      <c r="J13" t="n">
+        <v>75</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +917,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3142239300.57598</v>
+        <v>3376791844.484997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1739172830136379</v>
+        <v>0.1798374828650231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03575625498102239</v>
+        <v>0.04014190618732752</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>74</v>
+      </c>
+      <c r="K14" t="n">
+        <v>113.6047377318497</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1577047820.302062</v>
+        <v>1396373973.694951</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09996231697431</v>
+        <v>0.07206198490985201</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03779204165839507</v>
+        <v>0.04856753114762873</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2209816727.096335</v>
+        <v>2758647244.199831</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0895692995047677</v>
+        <v>0.07918857677789005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03908403598241742</v>
+        <v>0.04868170858181323</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3531545793.480083</v>
+        <v>5144908271.494599</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1067711551397088</v>
+        <v>0.1187937489225099</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04139014877165283</v>
+        <v>0.05144969458040421</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>36</v>
+      </c>
+      <c r="J17" t="n">
+        <v>74</v>
+      </c>
+      <c r="K17" t="n">
+        <v>161.2797065574208</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2629676736.5438</v>
+        <v>3553354514.949503</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1498185028771487</v>
+        <v>0.1706715937159848</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0242966681805478</v>
+        <v>0.0245939917618587</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>75</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1091085195.95096</v>
+        <v>1157743252.988158</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1362094761149335</v>
+        <v>0.1639410244206528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02304009359355685</v>
+        <v>0.01815175463171238</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2808900215.653786</v>
+        <v>1747216984.943444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1587130606828084</v>
+        <v>0.113495779288499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0259735213677494</v>
+        <v>0.02922961363865578</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1712689660.338348</v>
+        <v>2269945078.891108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06629249564875662</v>
+        <v>0.07696725516754549</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04108791431435806</v>
+        <v>0.02830492965273113</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2894564736.132109</v>
+        <v>3570757939.231017</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1271701340892902</v>
+        <v>0.09868637595300694</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04605930110525302</v>
+        <v>0.03753702885957083</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>75</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1242,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1472639823.161094</v>
+        <v>1002693374.260799</v>
       </c>
       <c r="F23" t="n">
-        <v>0.167236101563999</v>
+        <v>0.1754343904729923</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0539482395356373</v>
+        <v>0.05126569124369632</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2813882065.064167</v>
+        <v>4136926648.103916</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09876498247818925</v>
+        <v>0.1117502915275863</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03024303253974334</v>
+        <v>0.03439607641720912</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
+      <c r="J24" t="n">
+        <v>75</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1115521548.406831</v>
+        <v>1136027534.790018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09379463929831303</v>
+        <v>0.08587457653739324</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02815721554483193</v>
+        <v>0.01987555393166199</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1392826098.372714</v>
+        <v>982228153.5355686</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09042636761551211</v>
+        <v>0.08278923365416514</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03485262010553437</v>
+        <v>0.03028278580667637</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1382,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2866130866.62328</v>
+        <v>4383272633.843233</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1422953020508445</v>
+        <v>0.1275398115232833</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02666938564255164</v>
+        <v>0.02180967367650036</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>29</v>
+      </c>
+      <c r="J27" t="n">
+        <v>75</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3008741090.917033</v>
+        <v>2680739805.131143</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1466976310038506</v>
+        <v>0.1047631721822143</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04798959552873472</v>
+        <v>0.04883117933379681</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5759698585.046997</v>
+        <v>4734803455.338618</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1047364407641845</v>
+        <v>0.1142547208901383</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03015987167865642</v>
+        <v>0.03346192901722374</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>69</v>
+      </c>
+      <c r="J29" t="n">
+        <v>75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>210.7594357092757</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2380678928.142467</v>
+        <v>1489952387.458065</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09359571381474727</v>
+        <v>0.1159779361515872</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03908069688791961</v>
+        <v>0.02871368118777989</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1476952744.052346</v>
+        <v>1340633190.137793</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1012869083742845</v>
+        <v>0.0967042616829927</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04691952129417947</v>
+        <v>0.04882574472865999</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1578930799.554102</v>
+        <v>1900956641.607405</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09099080734409087</v>
+        <v>0.07396181862185584</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03878059777600258</v>
+        <v>0.02827767238159082</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2552032644.284941</v>
+        <v>2161589697.70662</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1745416529211238</v>
+        <v>0.1417504374842292</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04944710380029237</v>
+        <v>0.04407280408512015</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1204481838.405632</v>
+        <v>1108620929.669634</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1019532971643955</v>
+        <v>0.09190327323793092</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02012597642418268</v>
+        <v>0.02295904473764273</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1213072928.531718</v>
+        <v>994341119.8104086</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1100309574721065</v>
+        <v>0.09939963193577638</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03741966372241444</v>
+        <v>0.03027651562568881</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2978669755.954063</v>
+        <v>3196493332.236692</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1483734451084098</v>
+        <v>0.145618849977532</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02138602881779631</v>
+        <v>0.02140803072401331</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2628440705.596483</v>
+        <v>2694119744.147424</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09502011439411862</v>
+        <v>0.07536157649615456</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04174233842031033</v>
+        <v>0.03082374387822267</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1648983368.30715</v>
+        <v>1370376880.789278</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1139800781589883</v>
+        <v>0.1169031953267417</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03806917622433909</v>
+        <v>0.03583339807326102</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1817938941.251751</v>
+        <v>1777357709.666834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1663773244934599</v>
+        <v>0.1198873407421839</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02674219816920041</v>
+        <v>0.0296463479514051</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1668503956.371078</v>
+        <v>1142728140.259196</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1032408916168207</v>
+        <v>0.156128647467082</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04120821828577636</v>
+        <v>0.05893662138220554</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2387327845.12657</v>
+        <v>1855899726.194793</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1162471673110497</v>
+        <v>0.14510945723278</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04082262924760974</v>
+        <v>0.02858611538090746</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3130107132.502103</v>
+        <v>3991922266.954035</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1258089822027183</v>
+        <v>0.1122357597202437</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03139984421093947</v>
+        <v>0.0287341070932674</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>28</v>
+      </c>
+      <c r="J42" t="n">
+        <v>75</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2665932077.3112</v>
+        <v>2888345753.028438</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1603907136439915</v>
+        <v>0.1930196572406574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01781254274439952</v>
+        <v>0.02391386374261522</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2096597262.496098</v>
+        <v>1446826218.297511</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06263728462222164</v>
+        <v>0.09138073045802046</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02435360125525829</v>
+        <v>0.03614447608307265</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1609585912.96073</v>
+        <v>1699550339.24974</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1744789395808188</v>
+        <v>0.1606991529462158</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05558880525678371</v>
+        <v>0.04714160573581959</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3993276716.258442</v>
+        <v>4193323053.231311</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1402604715101752</v>
+        <v>0.1530813740018735</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05034507503716499</v>
+        <v>0.04453939109181359</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>44</v>
+      </c>
+      <c r="J46" t="n">
+        <v>74</v>
+      </c>
+      <c r="K46" t="n">
+        <v>179.8293150716108</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4570584167.313994</v>
+        <v>4036273659.191714</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1781642244357552</v>
+        <v>0.1673212346598588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03858652749550021</v>
+        <v>0.05593847155657122</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>33</v>
+      </c>
+      <c r="J47" t="n">
+        <v>75</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3503924559.645682</v>
+        <v>4325926119.776052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08772485694172454</v>
+        <v>0.1029888294595103</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02827389069345128</v>
+        <v>0.02423161165312248</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>28</v>
+      </c>
+      <c r="J48" t="n">
+        <v>74</v>
+      </c>
+      <c r="K48" t="n">
+        <v>183.7081084216269</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1547187462.126828</v>
+        <v>1197077976.752829</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1226971750505485</v>
+        <v>0.150961726827409</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03739479401637109</v>
+        <v>0.0282464186776621</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3053453613.385053</v>
+        <v>4175021212.504747</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115060724948</v>
+        <v>0.1587206161320107</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04714330987015406</v>
+        <v>0.03991300062805633</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>28</v>
+      </c>
+      <c r="J50" t="n">
+        <v>74</v>
+      </c>
+      <c r="K50" t="n">
+        <v>179.1178396446423</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1038160506.472112</v>
+        <v>1296657692.135715</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1205328417469992</v>
+        <v>0.195885297404185</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04349536658847097</v>
+        <v>0.03573415235184542</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4315973883.372955</v>
+        <v>5242099391.061429</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1048332754382849</v>
+        <v>0.1009953765471676</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06055715809325255</v>
+        <v>0.0420058888865428</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>58</v>
+      </c>
+      <c r="J52" t="n">
+        <v>75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>190.6011727007446</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3450399179.498414</v>
+        <v>2888372983.168417</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1794891656504405</v>
+        <v>0.1916779964790938</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03515737165527438</v>
+        <v>0.03414339429155024</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3319524251.413135</v>
+        <v>3675210129.677891</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1223433935128318</v>
+        <v>0.1189817975820138</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0414989507161841</v>
+        <v>0.04710305443324137</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34</v>
+      </c>
+      <c r="J54" t="n">
+        <v>74</v>
+      </c>
+      <c r="K54" t="n">
+        <v>137.932257669066</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3269394191.002371</v>
+        <v>3586994170.956719</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1710663738360213</v>
+        <v>0.2198198255256374</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03246078840949509</v>
+        <v>0.02386351089800939</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>35</v>
+      </c>
+      <c r="J55" t="n">
+        <v>74</v>
+      </c>
+      <c r="K55" t="n">
+        <v>118.2710050439743</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1596132897.670146</v>
+        <v>1348411040.021348</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1013525935799196</v>
+        <v>0.111390686777506</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04550084216027333</v>
+        <v>0.04533327389700353</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3676232149.059626</v>
+        <v>4530140367.995572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1814955989582647</v>
+        <v>0.1663394994717921</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02651242237451728</v>
+        <v>0.02700399939720045</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>27</v>
+      </c>
+      <c r="J57" t="n">
+        <v>75</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1214934397.146991</v>
+        <v>1309419947.401626</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1277997182574422</v>
+        <v>0.170958397722733</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03160099719880462</v>
+        <v>0.03518358809250526</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5111755529.867659</v>
+        <v>4789607744.692</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1014910489773499</v>
+        <v>0.1107323506170099</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04411535966423592</v>
+        <v>0.03103749147119386</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>36</v>
+      </c>
+      <c r="J59" t="n">
+        <v>75</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3619076698.447805</v>
+        <v>2391691955.14119</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1570629985651326</v>
+        <v>0.1266158245420552</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02786488662243817</v>
+        <v>0.02768397449011639</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>73</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3085684428.946535</v>
+        <v>2348588466.866935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.112416001372212</v>
+        <v>0.1531228720518636</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03226248033715078</v>
+        <v>0.0317722405616418</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1579030899.980194</v>
+        <v>2012257995.109346</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1320149138000284</v>
+        <v>0.1424956248089023</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03267076059392919</v>
+        <v>0.03030926008157086</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5200153822.676166</v>
+        <v>5088599000.262098</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09869684998658679</v>
+        <v>0.0684059441020328</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03469909228464224</v>
+        <v>0.03802475865103119</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>37</v>
+      </c>
+      <c r="J63" t="n">
+        <v>74</v>
+      </c>
+      <c r="K63" t="n">
+        <v>168.5391495887726</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3548061388.414547</v>
+        <v>5376722034.413635</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1774278122329003</v>
+        <v>0.1696140728839503</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02347635909061865</v>
+        <v>0.02529097402356365</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>37</v>
+      </c>
+      <c r="J64" t="n">
+        <v>74</v>
+      </c>
+      <c r="K64" t="n">
+        <v>173.4268362984523</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3771816292.329187</v>
+        <v>4437046325.649096</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1066669351295318</v>
+        <v>0.174683577609323</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02824638089840635</v>
+        <v>0.02837997742387302</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>59</v>
+      </c>
+      <c r="J65" t="n">
+        <v>75</v>
+      </c>
+      <c r="K65" t="n">
+        <v>184.9956863593403</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3451686679.302691</v>
+        <v>3499098331.943195</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1297543854395146</v>
+        <v>0.1349940865100668</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04326142808119968</v>
+        <v>0.03232567129741205</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>37</v>
+      </c>
+      <c r="J66" t="n">
+        <v>74</v>
+      </c>
+      <c r="K66" t="n">
+        <v>120.9254243747534</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2384134221.990095</v>
+        <v>3414357995.395473</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09749795101240609</v>
+        <v>0.06608702758067223</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03681900380133808</v>
+        <v>0.03800302331532115</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4254195269.260799</v>
+        <v>5588785560.811768</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1367581786762145</v>
+        <v>0.149778890481393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03308712632242325</v>
+        <v>0.03732057119058028</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>37</v>
+      </c>
+      <c r="J68" t="n">
+        <v>75</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2028239768.086409</v>
+        <v>2184734867.281271</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1379803929096926</v>
+        <v>0.1711662244186253</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04870015554707333</v>
+        <v>0.03806989358279011</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2485606714.694349</v>
+        <v>2759529823.535002</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06549702822219128</v>
+        <v>0.07023256862566424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03431739232567235</v>
+        <v>0.03310403908034751</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>65</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4621525447.555624</v>
+        <v>5213134539.641672</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1200458570322462</v>
+        <v>0.1613077362571743</v>
       </c>
       <c r="G71" t="n">
-        <v>0.023271968973591</v>
+        <v>0.02406420653956973</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>62</v>
+      </c>
+      <c r="J71" t="n">
+        <v>75</v>
+      </c>
+      <c r="K71" t="n">
+        <v>185.9970316896998</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1552915037.228546</v>
+        <v>1898591605.873337</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1024317006644843</v>
+        <v>0.08596294327634288</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04304426066088313</v>
+        <v>0.03775281191836145</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2627025338.298236</v>
+        <v>2335945678.142097</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1114398985353609</v>
+        <v>0.07190621358066282</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0502510635725013</v>
+        <v>0.04532471927279124</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2459501752.385456</v>
+        <v>3425208123.422334</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1752658621140763</v>
+        <v>0.1154740638214062</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02452567199256871</v>
+        <v>0.02693652711043177</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>22</v>
+      </c>
+      <c r="J74" t="n">
+        <v>74</v>
+      </c>
+      <c r="K74" t="n">
+        <v>121.5468401728834</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2058081721.223731</v>
+        <v>1986569740.198326</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146181606751467</v>
+        <v>0.1096687486367308</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02466885511919054</v>
+        <v>0.03754522318084644</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4376930729.132421</v>
+        <v>3893802203.717867</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1007323573741358</v>
+        <v>0.1137908912719326</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02527520252365893</v>
+        <v>0.030546359300467</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>34</v>
+      </c>
+      <c r="J76" t="n">
+        <v>75</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1551680489.014356</v>
+        <v>1625575174.742099</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1184550358256134</v>
+        <v>0.1835906776955666</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0238716234803178</v>
+        <v>0.02021267190529288</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3036039108.074386</v>
+        <v>3611893257.031368</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1220959983492229</v>
+        <v>0.1088538945755815</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05312315191406165</v>
+        <v>0.05124489389196198</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>36</v>
+      </c>
+      <c r="J78" t="n">
+        <v>74</v>
+      </c>
+      <c r="K78" t="n">
+        <v>140.5868865022155</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323763331.198543</v>
+        <v>1601370967.603276</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1127576280275404</v>
+        <v>0.1613127736080358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03441522919623353</v>
+        <v>0.03778156536534075</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3930181505.943999</v>
+        <v>3485720037.862278</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08255934361779656</v>
+        <v>0.09297714144248614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02815462880763077</v>
+        <v>0.03588305786783608</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>36</v>
+      </c>
+      <c r="J80" t="n">
+        <v>73</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3598237462.22116</v>
+        <v>4401254600.672812</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1100314408161279</v>
+        <v>0.08839208274342183</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02774538766773254</v>
+        <v>0.0271198997861113</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>34</v>
+      </c>
+      <c r="J81" t="n">
+        <v>74</v>
+      </c>
+      <c r="K81" t="n">
+        <v>147.821999473137</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4301907904.378647</v>
+        <v>4042404362.250655</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1873789269897859</v>
+        <v>0.1578285117296154</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01804682093781954</v>
+        <v>0.0216714101704084</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>46</v>
+      </c>
+      <c r="J82" t="n">
+        <v>75</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1893012749.045325</v>
+        <v>1550747681.475065</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1219187018854333</v>
+        <v>0.1583826405322342</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03295845323417784</v>
+        <v>0.03396697393057718</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1857155749.986375</v>
+        <v>2128874948.590829</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08744234753961644</v>
+        <v>0.09598548550997876</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04447206196683918</v>
+        <v>0.03433139561262958</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3386226054.40235</v>
+        <v>2547745072.726989</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1824447622278359</v>
+        <v>0.1543542214110493</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04618202656619835</v>
+        <v>0.03453766207008262</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>13</v>
+      </c>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2666455610.04674</v>
+        <v>1786854085.466984</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1688396715568588</v>
+        <v>0.1048403815641404</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02449642812689628</v>
+        <v>0.01943733769209054</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1440084941.346522</v>
+        <v>1069534323.22126</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1626758768587203</v>
+        <v>0.1800607553405081</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04077068256028107</v>
+        <v>0.02939079064758914</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3138752252.798467</v>
+        <v>2592869986.935357</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1101224356523458</v>
+        <v>0.1331235273347056</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03711965664379272</v>
+        <v>0.02943844166623977</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>67</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254917512.140516</v>
+        <v>2326429251.846847</v>
       </c>
       <c r="F89" t="n">
-        <v>0.150802436119391</v>
+        <v>0.1597241717187244</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02945252130871594</v>
+        <v>0.02771336187173084</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>68</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1434526463.562688</v>
+        <v>1951531481.329982</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09975829575968312</v>
+        <v>0.1117049868828474</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05289191566979859</v>
+        <v>0.03691543830464964</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1297815509.032058</v>
+        <v>2085583144.204155</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1732988849121359</v>
+        <v>0.1482697234599933</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04332976163338839</v>
+        <v>0.06082742603476125</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2760866184.163884</v>
+        <v>2442849208.078233</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09862099964207373</v>
+        <v>0.08333030364854904</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02919842254511493</v>
+        <v>0.02985330030689355</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3830565652.403701</v>
+        <v>4141876918.237514</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09570251756245236</v>
+        <v>0.1102614655085506</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04304610451418632</v>
+        <v>0.04852894392579065</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>34</v>
+      </c>
+      <c r="J93" t="n">
+        <v>74</v>
+      </c>
+      <c r="K93" t="n">
+        <v>162.5418676599502</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1672560848.724005</v>
+        <v>2198768330.986796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1498771139654259</v>
+        <v>0.162766065608139</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04231327644434378</v>
+        <v>0.03226877025429523</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2880406612.58448</v>
+        <v>2663620624.884673</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1126347441629677</v>
+        <v>0.1129842238226752</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03360717595719324</v>
+        <v>0.04914155110090329</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1759193252.871822</v>
+        <v>2287586892.13987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08824418351899703</v>
+        <v>0.1291844870402905</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03048224973932857</v>
+        <v>0.04268557297188524</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4806433725.4842</v>
+        <v>3436432495.017035</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1141917196828939</v>
+        <v>0.1652359666428715</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02599722965212995</v>
+        <v>0.0212554133097257</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>36</v>
+      </c>
+      <c r="J97" t="n">
+        <v>74</v>
+      </c>
+      <c r="K97" t="n">
+        <v>117.8977602610938</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2712760402.401645</v>
+        <v>2476192974.749725</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09197535763513857</v>
+        <v>0.09456122444254378</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02816151869850297</v>
+        <v>0.02770974094010334</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2678672775.759581</v>
+        <v>3272610180.226862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09919269045850666</v>
+        <v>0.1374129793940073</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02236595318051574</v>
+        <v>0.03412003771329573</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3742990444.834963</v>
+        <v>4768860552.629489</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1316763040333283</v>
+        <v>0.1400877196351316</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02225192914667027</v>
+        <v>0.02558747874311126</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>75</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3000106123.775543</v>
+        <v>2390600700.333765</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2020006204880341</v>
+        <v>0.1344210363488097</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04097928358765747</v>
+        <v>0.04669248066027613</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
